--- a/biology/Neurosciences/Institut_des_neurosciences_de_Bordeaux/Institut_des_neurosciences_de_Bordeaux.xlsx
+++ b/biology/Neurosciences/Institut_des_neurosciences_de_Bordeaux/Institut_des_neurosciences_de_Bordeaux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Institut des neurosciences de Bordeaux (INB) est un institut thématique dont l’activité couvre de nombreux champs de la recherche en neurosciences expérimentales et cliniques (création en 2003). Précédemment en Novembre 1994, Michel Le Moal crée le 1er Institut Fédératif de Recherche neurosciences (IFR: Institut Fédératif de recherche) en neurosciences cliniques et expérimentales en France.  Depuis 2017 l'Institut est devenu "Bordeaux Neurocampus" et regroupe toute la recherche neuroscience d'Aquitaine.
 L'institut n’est pas limité dans les niveaux d’analyse (in vitro, ex vivo, in vivo), la palette des modèles animaux (invertébrés, rongeurs, primates) et la diversité des approches technologiques.
